--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/BESP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\BESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="844" documentId="8_{DDCD7F66-7D42-F041-AC76-008463E934EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7558A74C-2332-4354-BA13-3DC63E38C61E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF18C8A-4475-4DE8-AC85-1BDBBFA3E0A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1207,7 +1207,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1873,7 +1873,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="70.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -1881,12 +1881,12 @@
     <col min="5" max="5" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1894,30 +1894,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>6</v>
       </c>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>16</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>16</v>
       </c>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>28</v>
       </c>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>31</v>
       </c>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>35</v>
       </c>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>38</v>
       </c>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>40</v>
       </c>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>42</v>
       </c>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
@@ -2107,49 +2107,49 @@
       </c>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="12"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="12"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="12"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="12"/>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="12"/>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="12"/>
       <c r="D26" s="19"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>48</v>
       </c>
@@ -2158,108 +2158,108 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53"/>
     </row>
@@ -2294,7 +2294,7 @@
       <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -2305,12 +2305,12 @@
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45">
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>5000</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F3" s="35">
         <v>3000</v>
       </c>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>73</v>
       </c>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>65</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>F3</f>
         <v>3000</v>
@@ -2430,7 +2430,7 @@
       <c r="M8" s="12"/>
       <c r="N8" s="19"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8000</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5000</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3000</v>
       </c>
@@ -2505,7 +2505,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="19"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5000</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5000</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5000</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>F8</f>
         <v>8000</v>
@@ -2606,7 +2606,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:14" ht="15.95" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <f>F11</f>
         <v>2500</v>
@@ -2630,7 +2630,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:3" ht="15.95" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="37" t="s">
         <v>11</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>38246108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.95" thickTop="1">
+    <row r="18" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>80</v>
       </c>
@@ -2648,29 +2648,29 @@
         <v>13267672</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <f>SUMPRODUCT(A8:A16,C8:C16)/C17</f>
         <v>4256.7480983947435</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <f>A21+A2</f>
         <v>9256.7480983947426</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>56380</v>
       </c>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>38200</v>
       </c>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>37500</v>
       </c>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44999</v>
       </c>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" ht="15.95" thickBot="1">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44995</v>
       </c>
@@ -2724,25 +2724,25 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" ht="15.95" thickTop="1">
+    <row r="32" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f>MEDIAN(A27:A31)</f>
         <v>44995</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <f>A24/A32</f>
         <v>0.20572837200566158</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>91</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="20">
         <v>2019</v>
@@ -2878,7 +2878,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="42">
         <f>C40</f>
@@ -3009,7 +3009,7 @@
         <v>0.20572837200566158</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
@@ -3044,7 +3044,7 @@
       <c r="AF41" s="42"/>
       <c r="AG41" s="42"/>
     </row>
-    <row r="42" spans="1:33" s="46" customFormat="1">
+    <row r="42" spans="1:33" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>92</v>
       </c>
@@ -3081,7 +3081,7 @@
       <c r="AF42" s="45"/>
       <c r="AG42" s="45"/>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
@@ -3116,7 +3116,7 @@
       <c r="AF43" s="42"/>
       <c r="AG43" s="42"/>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="AF44" s="42"/>
       <c r="AG44" s="42"/>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="AF45" s="42"/>
       <c r="AG45" s="42"/>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D46" s="42"/>
       <c r="E46" s="42"/>
       <c r="F46" s="42"/>
@@ -3218,7 +3218,7 @@
       <c r="AF46" s="42"/>
       <c r="AG46" s="42"/>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>68</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="AF47" s="42"/>
       <c r="AG47" s="42"/>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>71</v>
       </c>
@@ -3288,7 +3288,7 @@
       <c r="AF48" s="42"/>
       <c r="AG48" s="42"/>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>73</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c r="AF49" s="42"/>
       <c r="AG49" s="42"/>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>65</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="AF50" s="42"/>
       <c r="AG50" s="42"/>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>100000</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="AF51" s="42"/>
       <c r="AG51" s="42"/>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B52" s="37" t="s">
         <v>11</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="AF52" s="42"/>
       <c r="AG52" s="42"/>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>80</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="AF53" s="42"/>
       <c r="AG53" s="42"/>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C54" s="22"/>
       <c r="D54" s="42"/>
       <c r="E54" s="42"/>
@@ -3516,7 +3516,7 @@
       <c r="AF54" s="42"/>
       <c r="AG54" s="42"/>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>81</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="AF55" s="42"/>
       <c r="AG55" s="42"/>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <f>SUMPRODUCT(A51,C51)/C52</f>
         <v>13634.864493924453</v>
@@ -3589,7 +3589,7 @@
       <c r="AF56" s="42"/>
       <c r="AG56" s="42"/>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C57" s="22"/>
       <c r="D57" s="42"/>
       <c r="E57" s="42"/>
@@ -3622,7 +3622,7 @@
       <c r="AF57" s="42"/>
       <c r="AG57" s="42"/>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C58" s="22"/>
       <c r="D58" s="42"/>
       <c r="E58" s="42"/>
@@ -3655,7 +3655,7 @@
       <c r="AF58" s="42"/>
       <c r="AG58" s="42"/>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>93</v>
       </c>
@@ -3694,7 +3694,7 @@
       <c r="AF59" s="42"/>
       <c r="AG59" s="42"/>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>376000</v>
       </c>
@@ -3733,7 +3733,7 @@
       <c r="AF60" s="42"/>
       <c r="AG60" s="42"/>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>399000</v>
       </c>
@@ -3772,7 +3772,7 @@
       <c r="AF61" s="42"/>
       <c r="AG61" s="42"/>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>400400</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="AF62" s="42"/>
       <c r="AG62" s="42"/>
     </row>
-    <row r="63" spans="1:33" ht="45">
+    <row r="63" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>310500</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="AF63" s="42"/>
       <c r="AG63" s="42"/>
     </row>
-    <row r="64" spans="1:33" ht="45">
+    <row r="64" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>670000</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="AF64" s="42"/>
       <c r="AG64" s="42"/>
     </row>
-    <row r="65" spans="1:33" ht="45">
+    <row r="65" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>730000</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="AF65" s="42"/>
       <c r="AG65" s="42"/>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1080000</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="AF66" s="42"/>
       <c r="AG66" s="42"/>
     </row>
-    <row r="67" spans="1:33" ht="75">
+    <row r="67" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>870000</v>
       </c>
@@ -4006,7 +4006,7 @@
       <c r="AF67" s="42"/>
       <c r="AG67" s="42"/>
     </row>
-    <row r="68" spans="1:33" ht="60">
+    <row r="68" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1165000</v>
       </c>
@@ -4045,7 +4045,7 @@
       <c r="AF68" s="42"/>
       <c r="AG68" s="42"/>
     </row>
-    <row r="69" spans="1:33" ht="60">
+    <row r="69" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>406900</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="AF69" s="42"/>
       <c r="AG69" s="42"/>
     </row>
-    <row r="70" spans="1:33" ht="105">
+    <row r="70" spans="1:33" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>285000</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="AF70" s="42"/>
       <c r="AG70" s="42"/>
     </row>
-    <row r="71" spans="1:33" ht="90">
+    <row r="71" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>326000</v>
       </c>
@@ -4162,7 +4162,7 @@
       <c r="AF71" s="42"/>
       <c r="AG71" s="42"/>
     </row>
-    <row r="72" spans="1:33" ht="105">
+    <row r="72" spans="1:33" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>353000</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="AF72" s="42"/>
       <c r="AG72" s="42"/>
     </row>
-    <row r="73" spans="1:33" ht="45">
+    <row r="73" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>305000</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="AF73" s="42"/>
       <c r="AG73" s="42"/>
     </row>
-    <row r="74" spans="1:33" ht="45">
+    <row r="74" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>305000</v>
       </c>
@@ -4279,7 +4279,7 @@
       <c r="AF74" s="42"/>
       <c r="AG74" s="42"/>
     </row>
-    <row r="75" spans="1:33" ht="90">
+    <row r="75" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>180000</v>
       </c>
@@ -4318,7 +4318,7 @@
       <c r="AF75" s="42"/>
       <c r="AG75" s="42"/>
     </row>
-    <row r="76" spans="1:33" ht="90">
+    <row r="76" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>250000</v>
       </c>
@@ -4357,7 +4357,7 @@
       <c r="AF76" s="42"/>
       <c r="AG76" s="42"/>
     </row>
-    <row r="77" spans="1:33" ht="90">
+    <row r="77" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>257000</v>
       </c>
@@ -4396,7 +4396,7 @@
       <c r="AF77" s="42"/>
       <c r="AG77" s="42"/>
     </row>
-    <row r="78" spans="1:33" ht="90">
+    <row r="78" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>300000</v>
       </c>
@@ -4435,7 +4435,7 @@
       <c r="AF78" s="42"/>
       <c r="AG78" s="42"/>
     </row>
-    <row r="79" spans="1:33" ht="90">
+    <row r="79" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>306000</v>
       </c>
@@ -4474,7 +4474,7 @@
       <c r="AF79" s="42"/>
       <c r="AG79" s="42"/>
     </row>
-    <row r="80" spans="1:33" ht="45">
+    <row r="80" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>290000</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="AF80" s="42"/>
       <c r="AG80" s="42"/>
     </row>
-    <row r="81" spans="1:33" ht="45">
+    <row r="81" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>335000</v>
       </c>
@@ -4552,7 +4552,7 @@
       <c r="AF81" s="42"/>
       <c r="AG81" s="42"/>
     </row>
-    <row r="82" spans="1:33" ht="45">
+    <row r="82" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>346000</v>
       </c>
@@ -4591,7 +4591,7 @@
       <c r="AF82" s="42"/>
       <c r="AG82" s="42"/>
     </row>
-    <row r="83" spans="1:33" ht="45">
+    <row r="83" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>395000</v>
       </c>
@@ -4630,7 +4630,7 @@
       <c r="AF83" s="42"/>
       <c r="AG83" s="42"/>
     </row>
-    <row r="84" spans="1:33" ht="45">
+    <row r="84" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>305000</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="AF84" s="42"/>
       <c r="AG84" s="42"/>
     </row>
-    <row r="85" spans="1:33" ht="75">
+    <row r="85" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>1400000</v>
       </c>
@@ -4708,7 +4708,7 @@
       <c r="AF85" s="42"/>
       <c r="AG85" s="42"/>
     </row>
-    <row r="86" spans="1:33" ht="90">
+    <row r="86" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>1400000</v>
       </c>
@@ -4747,7 +4747,7 @@
       <c r="AF86" s="42"/>
       <c r="AG86" s="42"/>
     </row>
-    <row r="87" spans="1:33" ht="75">
+    <row r="87" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>280000</v>
       </c>
@@ -4786,7 +4786,7 @@
       <c r="AF87" s="42"/>
       <c r="AG87" s="42"/>
     </row>
-    <row r="88" spans="1:33" ht="45">
+    <row r="88" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>975000</v>
       </c>
@@ -4825,7 +4825,7 @@
       <c r="AF88" s="42"/>
       <c r="AG88" s="42"/>
     </row>
-    <row r="89" spans="1:33" ht="45">
+    <row r="89" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>995000</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="AF89" s="42"/>
       <c r="AG89" s="42"/>
     </row>
-    <row r="90" spans="1:33" ht="60">
+    <row r="90" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>1095000</v>
       </c>
@@ -4903,7 +4903,7 @@
       <c r="AF90" s="42"/>
       <c r="AG90" s="42"/>
     </row>
-    <row r="91" spans="1:33" ht="75">
+    <row r="91" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>406900</v>
       </c>
@@ -4942,7 +4942,7 @@
       <c r="AF91" s="42"/>
       <c r="AG91" s="42"/>
     </row>
-    <row r="92" spans="1:33" ht="45">
+    <row r="92" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>400000</v>
       </c>
@@ -4981,7 +4981,7 @@
       <c r="AF92" s="42"/>
       <c r="AG92" s="42"/>
     </row>
-    <row r="93" spans="1:33" ht="60">
+    <row r="93" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>1050000</v>
       </c>
@@ -5020,7 +5020,7 @@
       <c r="AF93" s="42"/>
       <c r="AG93" s="42"/>
     </row>
-    <row r="94" spans="1:33" ht="60">
+    <row r="94" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>1130000</v>
       </c>
@@ -5059,7 +5059,7 @@
       <c r="AF94" s="42"/>
       <c r="AG94" s="42"/>
     </row>
-    <row r="95" spans="1:33" ht="75">
+    <row r="95" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>376000</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="AF95" s="42"/>
       <c r="AG95" s="42"/>
     </row>
-    <row r="96" spans="1:33" ht="60">
+    <row r="96" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>274000</v>
       </c>
@@ -5137,7 +5137,7 @@
       <c r="AF96" s="42"/>
       <c r="AG96" s="42"/>
     </row>
-    <row r="97" spans="1:33" ht="75">
+    <row r="97" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>285000</v>
       </c>
@@ -5176,7 +5176,7 @@
       <c r="AF97" s="42"/>
       <c r="AG97" s="42"/>
     </row>
-    <row r="98" spans="1:33" ht="75">
+    <row r="98" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>271000</v>
       </c>
@@ -5215,7 +5215,7 @@
       <c r="AF98" s="42"/>
       <c r="AG98" s="42"/>
     </row>
-    <row r="99" spans="1:33" ht="60">
+    <row r="99" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>295000</v>
       </c>
@@ -5254,7 +5254,7 @@
       <c r="AF99" s="42"/>
       <c r="AG99" s="42"/>
     </row>
-    <row r="100" spans="1:33">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="C100" s="22"/>
       <c r="D100" s="42"/>
@@ -5288,7 +5288,7 @@
       <c r="AF100" s="42"/>
       <c r="AG100" s="42"/>
     </row>
-    <row r="101" spans="1:33">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="41"/>
       <c r="C101" s="22"/>
@@ -5323,7 +5323,7 @@
       <c r="AF101" s="42"/>
       <c r="AG101" s="42"/>
     </row>
-    <row r="102" spans="1:33">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <f>AVERAGE(A60:A101)</f>
         <v>539467.5</v>
@@ -5360,7 +5360,7 @@
       <c r="AF102" s="42"/>
       <c r="AG102" s="42"/>
     </row>
-    <row r="103" spans="1:33">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C103" s="22"/>
       <c r="D103" s="42"/>
       <c r="E103" s="42"/>
@@ -5393,7 +5393,7 @@
       <c r="AF103" s="42"/>
       <c r="AG103" s="42"/>
     </row>
-    <row r="104" spans="1:33">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>90</v>
       </c>
@@ -5429,7 +5429,7 @@
       <c r="AF104" s="42"/>
       <c r="AG104" s="42"/>
     </row>
-    <row r="105" spans="1:33">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <f>A56/A102</f>
         <v>2.5274672698400651E-2</v>
@@ -5466,7 +5466,7 @@
       <c r="AF105" s="42"/>
       <c r="AG105" s="42"/>
     </row>
-    <row r="106" spans="1:33">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C106" s="22"/>
       <c r="D106" s="42"/>
       <c r="E106" s="42"/>
@@ -5499,12 +5499,12 @@
       <c r="AF106" s="42"/>
       <c r="AG106" s="42"/>
     </row>
-    <row r="108" spans="1:33">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" s="43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="109" spans="1:33">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>2019</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="110" spans="1:33">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="49">
         <f>$A$105</f>
         <v>2.5274672698400651E-2</v>
@@ -5741,11 +5741,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B78FE51-65E0-8E4B-A5A7-34FBA4D91466}">
   <dimension ref="A1:AG90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -5755,22 +5755,22 @@
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.95" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45">
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F7" s="35">
         <v>100000</v>
       </c>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>138</v>
       </c>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -5864,7 +5864,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>100000</v>
       </c>
@@ -5889,7 +5889,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="19"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -5907,7 +5907,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
@@ -5925,7 +5925,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
@@ -5943,7 +5943,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="19"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
@@ -5961,7 +5961,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -5979,7 +5979,7 @@
       <c r="M17" s="12"/>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -5997,7 +5997,7 @@
       <c r="M18" s="12"/>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
@@ -6015,7 +6015,7 @@
       <c r="M19" s="12"/>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F20" s="28"/>
       <c r="G20" s="29" t="s">
         <v>79</v>
@@ -6028,7 +6028,7 @@
       <c r="M20" s="12"/>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="s">
         <v>11</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>38246108</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>80</v>
       </c>
@@ -6046,29 +6046,29 @@
         <v>33031303</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <f>SUMPRODUCT(A12:A12,C12:C12)/C21</f>
         <v>13634.864493924453</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <f>A25+A6</f>
         <v>13634.864493924453</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="30">
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>141</v>
       </c>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="45">
+    <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>305000</v>
       </c>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="45">
+    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>310000</v>
       </c>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="45">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>450000</v>
       </c>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" ht="45">
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>500000</v>
       </c>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" ht="45">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>315000</v>
       </c>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" ht="45">
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>424000</v>
       </c>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" ht="45">
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>315000</v>
       </c>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" ht="45">
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>315000</v>
       </c>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" ht="90">
+    <row r="39" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>228000</v>
       </c>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" ht="75">
+    <row r="40" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>237000</v>
       </c>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" ht="90">
+    <row r="41" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>337000</v>
       </c>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" ht="75">
+    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>267000</v>
       </c>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" ht="45">
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>265000</v>
       </c>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" ht="45">
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>410000</v>
       </c>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" ht="75">
+    <row r="45" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>580000</v>
       </c>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" ht="60">
+    <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>555000</v>
       </c>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" ht="60">
+    <row r="47" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>450000</v>
       </c>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" ht="45">
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>302000</v>
       </c>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" ht="60">
+    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>280000</v>
       </c>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" ht="60">
+    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>222000</v>
       </c>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" ht="60">
+    <row r="51" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>459000</v>
       </c>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" ht="45">
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>327000</v>
       </c>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" ht="45">
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>645000</v>
       </c>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" ht="45">
+    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>637000</v>
       </c>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" ht="60">
+    <row r="55" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>532000</v>
       </c>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" ht="60">
+    <row r="56" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>537000</v>
       </c>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" ht="60">
+    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>557000</v>
       </c>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" ht="45">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>358000</v>
       </c>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" ht="45">
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>426000</v>
       </c>
@@ -6338,7 +6338,7 @@
       </c>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" ht="45">
+    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>427000</v>
       </c>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" ht="45">
+    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>845000</v>
       </c>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" ht="45">
+    <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>834000</v>
       </c>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" ht="45">
+    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>427000</v>
       </c>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" ht="45">
+    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>845000</v>
       </c>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:33" ht="60">
+    <row r="65" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>200000</v>
       </c>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:33" ht="45">
+    <row r="66" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>300000</v>
       </c>
@@ -6401,48 +6401,48 @@
       </c>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="14"/>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="14"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="41"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <f>AVERAGE(A31:A71)</f>
         <v>428416.66666666669</v>
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="50">
         <f>A28/A72</f>
         <v>3.1826176605153363E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>178</v>
       </c>
@@ -6479,7 +6479,7 @@
       <c r="AF77" s="20"/>
       <c r="AG77" s="20"/>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
       <c r="B78" s="20">
         <v>2019</v>
@@ -6578,7 +6578,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
       <c r="B79" s="42">
         <f>C79</f>
@@ -6709,18 +6709,18 @@
         <v>3.1826176605153363E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:33">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <f>SUMPRODUCT(33%,C12:C12)/C21</f>
         <v>4.4995052829950699E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:33">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>179</v>
       </c>
@@ -6757,7 +6757,7 @@
       <c r="AF84" s="20"/>
       <c r="AG84" s="20"/>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="20">
         <v>2019</v>
@@ -6856,7 +6856,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="42">
         <f>C86</f>
@@ -6987,7 +6987,7 @@
         <v>4.4995052829950699E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:33">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B90" s="9"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -7016,12 +7016,12 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="48">
+    <row r="1" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>180</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>0.20572837200566158</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>2.5274672698400651E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -7870,16 +7870,16 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32.1">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>180</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>4.4995052829950699E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>3.1826176605153363E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -8616,101 +8616,133 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
+      <c r="E7" s="49">
+        <f>E3</f>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="F7" s="49">
+        <f t="shared" ref="F7:AJ7" si="0">F3</f>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="G7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="H7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="I7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="J7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="K7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="L7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="M7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="N7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="O7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="P7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="Q7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="R7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="S7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="T7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="U7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="V7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="W7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="X7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="Y7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="Z7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="AA7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="AB7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="AC7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="AD7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="AE7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="AF7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="AG7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="AH7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="AI7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
+      </c>
+      <c r="AJ7" s="49">
+        <f t="shared" si="0"/>
+        <v>3.1826176605153363E-2</v>
       </c>
     </row>
   </sheetData>
@@ -8726,9 +8758,9 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="63.95">
+    <row r="1" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>187</v>
       </c>
@@ -8766,12 +8798,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -8809,7 +8841,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -8847,12 +8879,12 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8890,12 +8922,12 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -8933,12 +8965,12 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -8976,12 +9008,12 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -9019,12 +9051,12 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -9062,12 +9094,12 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -9105,12 +9137,12 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>216</v>
       </c>
@@ -9148,12 +9180,12 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>218</v>
       </c>
@@ -9191,7 +9223,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -9199,7 +9231,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -9237,12 +9269,12 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2021</v>
       </c>
@@ -9280,12 +9312,12 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -9323,7 +9355,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -9361,12 +9393,12 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>218</v>
       </c>
@@ -9404,7 +9436,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -9412,7 +9444,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>226</v>
       </c>
@@ -9450,7 +9482,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>218</v>
       </c>
@@ -9458,7 +9490,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -9466,22 +9498,22 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2020</v>
       </c>
@@ -9519,17 +9551,17 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2021</v>
       </c>
@@ -9567,22 +9599,22 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -9620,17 +9652,17 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2021</v>
       </c>
@@ -9668,17 +9700,17 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -9716,7 +9748,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>218</v>
       </c>
@@ -9754,7 +9786,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2019</v>
       </c>
@@ -9762,12 +9794,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -9805,12 +9837,12 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>245</v>
       </c>
@@ -9848,7 +9880,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2019</v>
       </c>
@@ -9886,12 +9918,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2021</v>
       </c>
@@ -9929,12 +9961,12 @@
         <v>44174</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2021</v>
       </c>
@@ -9972,12 +10004,12 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -10015,7 +10047,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -10023,12 +10055,12 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2019</v>
       </c>
@@ -10066,12 +10098,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -10109,12 +10141,12 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -10152,12 +10184,12 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2019</v>
       </c>
@@ -10195,12 +10227,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2022</v>
       </c>
@@ -10238,17 +10270,17 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2020</v>
       </c>
@@ -10286,12 +10318,12 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2021</v>
       </c>
@@ -10329,17 +10361,17 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2022</v>
       </c>
@@ -10377,17 +10409,17 @@
         <v>44390</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2021</v>
       </c>
@@ -10425,12 +10457,12 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2019</v>
       </c>
@@ -10468,7 +10500,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2020</v>
       </c>
@@ -10506,22 +10538,22 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2022</v>
       </c>
@@ -10559,12 +10591,12 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2017</v>
       </c>
@@ -10602,7 +10634,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>218</v>
       </c>
@@ -10640,12 +10672,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2019</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2022</v>
       </c>
@@ -10683,12 +10715,12 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2019</v>
       </c>
@@ -10726,12 +10758,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2020</v>
       </c>
@@ -10769,12 +10801,12 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2021</v>
       </c>
@@ -10812,17 +10844,17 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2022</v>
       </c>
@@ -10860,17 +10892,17 @@
         <v>44425</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2019</v>
       </c>
@@ -10908,12 +10940,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2020</v>
       </c>
@@ -10951,12 +10983,12 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2021</v>
       </c>
@@ -10994,17 +11026,17 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2022</v>
       </c>
@@ -11042,17 +11074,17 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>226</v>
       </c>
@@ -11090,7 +11122,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>218</v>
       </c>
@@ -11098,17 +11130,17 @@
         <v>275</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2020</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2022</v>
       </c>
@@ -11146,17 +11178,17 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2022</v>
       </c>
@@ -11194,12 +11226,12 @@
         <v>44403</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2021</v>
       </c>
@@ -11237,7 +11269,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>226</v>
       </c>
@@ -11275,7 +11307,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>218</v>
       </c>
@@ -11283,7 +11315,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>278</v>
       </c>
@@ -11291,7 +11323,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2020</v>
       </c>
@@ -11299,12 +11331,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2022</v>
       </c>
@@ -11342,12 +11374,12 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2022</v>
       </c>
@@ -11385,7 +11417,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>294</v>
       </c>
@@ -11423,7 +11455,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2021</v>
       </c>
@@ -11431,12 +11463,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>218</v>
       </c>
@@ -11474,7 +11506,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -11482,12 +11514,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2020</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2021</v>
       </c>
@@ -11525,7 +11557,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2022</v>
       </c>
@@ -11563,7 +11595,7 @@
         <v>44271</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2017</v>
       </c>
@@ -11601,7 +11633,7 @@
         <v>43703</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>218</v>
       </c>
@@ -11639,7 +11671,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2019</v>
       </c>
@@ -11647,17 +11679,17 @@
         <v>306</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2020</v>
       </c>
@@ -11695,22 +11727,22 @@
         <v>43703</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2021</v>
       </c>
@@ -11748,22 +11780,22 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2022</v>
       </c>
@@ -11801,22 +11833,22 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>216</v>
       </c>
@@ -11854,32 +11886,32 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2020</v>
       </c>
@@ -11917,27 +11949,27 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2021</v>
       </c>
@@ -11975,22 +12007,22 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2022</v>
       </c>
@@ -12028,22 +12060,22 @@
         <v>44431</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D180" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>218</v>
       </c>
@@ -12081,12 +12113,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2019</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>218</v>
       </c>
@@ -12124,12 +12156,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2019</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>226</v>
       </c>
@@ -12167,12 +12199,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2018</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>226</v>
       </c>
@@ -12210,12 +12242,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2018</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2021</v>
       </c>
@@ -12253,7 +12285,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2020</v>
       </c>
@@ -12291,7 +12323,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2022</v>
       </c>
@@ -12329,12 +12361,12 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2021</v>
       </c>
@@ -12372,12 +12404,12 @@
         <v>44117</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2019</v>
       </c>
@@ -12415,12 +12447,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2020</v>
       </c>
@@ -12458,12 +12490,12 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2022</v>
       </c>
@@ -12501,12 +12533,12 @@
         <v>44369</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D200" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2021</v>
       </c>
@@ -12544,12 +12576,12 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D202" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>218</v>
       </c>
@@ -12587,7 +12619,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2019</v>
       </c>
@@ -12595,12 +12627,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2020</v>
       </c>
@@ -12638,17 +12670,17 @@
         <v>43622</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2021</v>
       </c>
@@ -12686,12 +12718,12 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>226</v>
       </c>
@@ -12729,12 +12761,12 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2018</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2019</v>
       </c>
@@ -12772,7 +12804,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2020</v>
       </c>
@@ -12810,7 +12842,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2021</v>
       </c>
@@ -12848,7 +12880,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
         <v>338</v>
       </c>
@@ -12859,32 +12891,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -13130,14 +13136,66 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D247833D-A1B7-41AC-BACC-D4689E30195E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71507B1-5DDF-4A0F-BA56-7879099D2B5F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04F5E967-8A5F-4435-99AE-097DF8883537}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04F5E967-8A5F-4435-99AE-097DF8883537}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71507B1-5DDF-4A0F-BA56-7879099D2B5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D247833D-A1B7-41AC-BACC-D4689E30195E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24815"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/BESP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="844" documentId="8_{DDCD7F66-7D42-F041-AC76-008463E934EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7558A74C-2332-4354-BA13-3DC63E38C61E}"/>
+  <xr:revisionPtr revIDLastSave="847" documentId="8_{DDCD7F66-7D42-F041-AC76-008463E934EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BBF8398-8E39-4668-A975-A19D06BE461C}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16080" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3495" yWindow="3075" windowWidth="27030" windowHeight="14130" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1207,7 +1207,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1873,7 +1873,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="70.85546875" style="3" customWidth="1"/>
     <col min="3" max="3" width="38.140625" customWidth="1"/>
@@ -1881,12 +1881,12 @@
     <col min="5" max="5" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1894,30 +1894,30 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="15"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="16" t="s">
         <v>6</v>
       </c>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="G9" s="17"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>16</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>16</v>
       </c>
@@ -1987,7 +1987,7 @@
       </c>
       <c r="F12" s="20"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
@@ -2002,7 +2002,7 @@
       </c>
       <c r="F13" s="20"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>28</v>
       </c>
@@ -2017,7 +2017,7 @@
       </c>
       <c r="F14" s="20"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>31</v>
       </c>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="F15" s="20"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="18" t="s">
         <v>35</v>
       </c>
@@ -2047,7 +2047,7 @@
       </c>
       <c r="F16" s="20"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="18" t="s">
         <v>38</v>
       </c>
@@ -2062,7 +2062,7 @@
       </c>
       <c r="F17" s="20"/>
     </row>
-    <row r="18" spans="2:6">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="18" t="s">
         <v>40</v>
       </c>
@@ -2077,7 +2077,7 @@
       </c>
       <c r="F18" s="20"/>
     </row>
-    <row r="19" spans="2:6">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="18" t="s">
         <v>42</v>
       </c>
@@ -2092,7 +2092,7 @@
       </c>
       <c r="F19" s="20"/>
     </row>
-    <row r="20" spans="2:6">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>44</v>
       </c>
@@ -2107,49 +2107,49 @@
       </c>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="2:6">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
       <c r="C21" s="12"/>
       <c r="D21" s="19"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
     </row>
-    <row r="22" spans="2:6">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
       <c r="C22" s="12"/>
       <c r="D22" s="19"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
     </row>
-    <row r="23" spans="2:6">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
       <c r="C23" s="12"/>
       <c r="D23" s="19"/>
       <c r="E23" s="20"/>
       <c r="F23" s="20"/>
     </row>
-    <row r="24" spans="2:6">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
       <c r="C24" s="12"/>
       <c r="D24" s="19"/>
       <c r="E24" s="20"/>
       <c r="F24" s="20"/>
     </row>
-    <row r="25" spans="2:6">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
       <c r="C25" s="12"/>
       <c r="D25" s="19"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
     </row>
-    <row r="26" spans="2:6">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
       <c r="C26" s="12"/>
       <c r="D26" s="19"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
     </row>
-    <row r="27" spans="2:6">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="20" t="s">
         <v>48</v>
       </c>
@@ -2158,108 +2158,108 @@
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
     </row>
-    <row r="29" spans="2:6">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="2:6">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="2:6">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="3">
         <v>2021</v>
       </c>
     </row>
-    <row r="32" spans="2:6">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E46" s="3"/>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G52" s="8"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="14"/>
       <c r="B53"/>
     </row>
@@ -2290,11 +2290,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG110"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="R40" sqref="R40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -2305,12 +2305,12 @@
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45">
+    <row r="2" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>5000</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F3" s="35">
         <v>3000</v>
       </c>
@@ -2336,7 +2336,7 @@
       </c>
       <c r="K3" s="22"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>68</v>
       </c>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="K4" s="22"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>71</v>
       </c>
@@ -2366,7 +2366,7 @@
       </c>
       <c r="K5" s="22"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>73</v>
       </c>
@@ -2381,7 +2381,7 @@
       </c>
       <c r="K6" s="22"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>65</v>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="M7" s="12"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f>F3</f>
         <v>3000</v>
@@ -2430,7 +2430,7 @@
       <c r="M8" s="12"/>
       <c r="N8" s="19"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8000</v>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="M9" s="12"/>
       <c r="N9" s="20"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5000</v>
       </c>
@@ -2480,7 +2480,7 @@
       <c r="M10" s="12"/>
       <c r="N10" s="20"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3000</v>
       </c>
@@ -2505,7 +2505,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="19"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5000</v>
       </c>
@@ -2530,7 +2530,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>5000</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>5000</v>
       </c>
@@ -2580,7 +2580,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f>F8</f>
         <v>8000</v>
@@ -2606,7 +2606,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="20"/>
     </row>
-    <row r="16" spans="1:14" ht="15.95" thickBot="1">
+    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="36">
         <f>F11</f>
         <v>2500</v>
@@ -2630,7 +2630,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:3" ht="15.95" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="37" t="s">
         <v>11</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>38246108</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.95" thickTop="1">
+    <row r="18" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>80</v>
       </c>
@@ -2648,29 +2648,29 @@
         <v>13267672</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <f>SUMPRODUCT(A8:A16,C8:C16)/C17</f>
         <v>4256.7480983947435</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
         <f>A21+A2</f>
         <v>9256.7480983947426</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
@@ -2679,7 +2679,7 @@
       </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>56380</v>
       </c>
@@ -2688,7 +2688,7 @@
       </c>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>38200</v>
       </c>
@@ -2697,7 +2697,7 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>37500</v>
       </c>
@@ -2706,7 +2706,7 @@
       </c>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>44999</v>
       </c>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" ht="15.95" thickBot="1">
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>44995</v>
       </c>
@@ -2724,25 +2724,25 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" ht="15.95" thickTop="1">
+    <row r="32" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f>MEDIAN(A27:A31)</f>
         <v>44995</v>
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="39">
         <f>A24/A32</f>
         <v>0.20572837200566158</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="43" t="s">
         <v>91</v>
       </c>
@@ -2779,7 +2779,7 @@
       <c r="AF38" s="20"/>
       <c r="AG38" s="20"/>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="20">
         <v>2019</v>
@@ -2878,7 +2878,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="42">
         <f>C40</f>
@@ -3009,7 +3009,7 @@
         <v>0.20572837200566158</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
@@ -3044,7 +3044,7 @@
       <c r="AF41" s="42"/>
       <c r="AG41" s="42"/>
     </row>
-    <row r="42" spans="1:33" s="46" customFormat="1">
+    <row r="42" spans="1:33" s="46" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
         <v>92</v>
       </c>
@@ -3081,7 +3081,7 @@
       <c r="AF42" s="45"/>
       <c r="AG42" s="45"/>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="42"/>
       <c r="C43" s="42"/>
@@ -3116,7 +3116,7 @@
       <c r="AF43" s="42"/>
       <c r="AG43" s="42"/>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>64</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="AF44" s="42"/>
       <c r="AG44" s="42"/>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>0</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="AF45" s="42"/>
       <c r="AG45" s="42"/>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="D46" s="42"/>
       <c r="E46" s="42"/>
       <c r="F46" s="42"/>
@@ -3218,7 +3218,7 @@
       <c r="AF46" s="42"/>
       <c r="AG46" s="42"/>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>68</v>
       </c>
@@ -3253,7 +3253,7 @@
       <c r="AF47" s="42"/>
       <c r="AG47" s="42"/>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>71</v>
       </c>
@@ -3288,7 +3288,7 @@
       <c r="AF48" s="42"/>
       <c r="AG48" s="42"/>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>73</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c r="AF49" s="42"/>
       <c r="AG49" s="42"/>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>65</v>
       </c>
@@ -3364,7 +3364,7 @@
       <c r="AF50" s="42"/>
       <c r="AG50" s="42"/>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>100000</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="AF51" s="42"/>
       <c r="AG51" s="42"/>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B52" s="37" t="s">
         <v>11</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="AF52" s="42"/>
       <c r="AG52" s="42"/>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>80</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="AF53" s="42"/>
       <c r="AG53" s="42"/>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C54" s="22"/>
       <c r="D54" s="42"/>
       <c r="E54" s="42"/>
@@ -3516,7 +3516,7 @@
       <c r="AF54" s="42"/>
       <c r="AG54" s="42"/>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>81</v>
       </c>
@@ -3552,7 +3552,7 @@
       <c r="AF55" s="42"/>
       <c r="AG55" s="42"/>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <f>SUMPRODUCT(A51,C51)/C52</f>
         <v>13634.864493924453</v>
@@ -3589,7 +3589,7 @@
       <c r="AF56" s="42"/>
       <c r="AG56" s="42"/>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C57" s="22"/>
       <c r="D57" s="42"/>
       <c r="E57" s="42"/>
@@ -3622,7 +3622,7 @@
       <c r="AF57" s="42"/>
       <c r="AG57" s="42"/>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C58" s="22"/>
       <c r="D58" s="42"/>
       <c r="E58" s="42"/>
@@ -3655,7 +3655,7 @@
       <c r="AF58" s="42"/>
       <c r="AG58" s="42"/>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>93</v>
       </c>
@@ -3694,7 +3694,7 @@
       <c r="AF59" s="42"/>
       <c r="AG59" s="42"/>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>376000</v>
       </c>
@@ -3733,7 +3733,7 @@
       <c r="AF60" s="42"/>
       <c r="AG60" s="42"/>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>399000</v>
       </c>
@@ -3772,7 +3772,7 @@
       <c r="AF61" s="42"/>
       <c r="AG61" s="42"/>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>400400</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="AF62" s="42"/>
       <c r="AG62" s="42"/>
     </row>
-    <row r="63" spans="1:33" ht="45">
+    <row r="63" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>310500</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="AF63" s="42"/>
       <c r="AG63" s="42"/>
     </row>
-    <row r="64" spans="1:33" ht="45">
+    <row r="64" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>670000</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="AF64" s="42"/>
       <c r="AG64" s="42"/>
     </row>
-    <row r="65" spans="1:33" ht="45">
+    <row r="65" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>730000</v>
       </c>
@@ -3928,7 +3928,7 @@
       <c r="AF65" s="42"/>
       <c r="AG65" s="42"/>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1080000</v>
       </c>
@@ -3967,7 +3967,7 @@
       <c r="AF66" s="42"/>
       <c r="AG66" s="42"/>
     </row>
-    <row r="67" spans="1:33" ht="75">
+    <row r="67" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>870000</v>
       </c>
@@ -4006,7 +4006,7 @@
       <c r="AF67" s="42"/>
       <c r="AG67" s="42"/>
     </row>
-    <row r="68" spans="1:33" ht="60">
+    <row r="68" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1165000</v>
       </c>
@@ -4045,7 +4045,7 @@
       <c r="AF68" s="42"/>
       <c r="AG68" s="42"/>
     </row>
-    <row r="69" spans="1:33" ht="60">
+    <row r="69" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>406900</v>
       </c>
@@ -4084,7 +4084,7 @@
       <c r="AF69" s="42"/>
       <c r="AG69" s="42"/>
     </row>
-    <row r="70" spans="1:33" ht="105">
+    <row r="70" spans="1:33" ht="105" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>285000</v>
       </c>
@@ -4123,7 +4123,7 @@
       <c r="AF70" s="42"/>
       <c r="AG70" s="42"/>
     </row>
-    <row r="71" spans="1:33" ht="90">
+    <row r="71" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>326000</v>
       </c>
@@ -4162,7 +4162,7 @@
       <c r="AF71" s="42"/>
       <c r="AG71" s="42"/>
     </row>
-    <row r="72" spans="1:33" ht="105">
+    <row r="72" spans="1:33" ht="105" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>353000</v>
       </c>
@@ -4201,7 +4201,7 @@
       <c r="AF72" s="42"/>
       <c r="AG72" s="42"/>
     </row>
-    <row r="73" spans="1:33" ht="45">
+    <row r="73" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>305000</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="AF73" s="42"/>
       <c r="AG73" s="42"/>
     </row>
-    <row r="74" spans="1:33" ht="45">
+    <row r="74" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>305000</v>
       </c>
@@ -4279,7 +4279,7 @@
       <c r="AF74" s="42"/>
       <c r="AG74" s="42"/>
     </row>
-    <row r="75" spans="1:33" ht="90">
+    <row r="75" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>180000</v>
       </c>
@@ -4318,7 +4318,7 @@
       <c r="AF75" s="42"/>
       <c r="AG75" s="42"/>
     </row>
-    <row r="76" spans="1:33" ht="90">
+    <row r="76" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>250000</v>
       </c>
@@ -4357,7 +4357,7 @@
       <c r="AF76" s="42"/>
       <c r="AG76" s="42"/>
     </row>
-    <row r="77" spans="1:33" ht="90">
+    <row r="77" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>257000</v>
       </c>
@@ -4396,7 +4396,7 @@
       <c r="AF77" s="42"/>
       <c r="AG77" s="42"/>
     </row>
-    <row r="78" spans="1:33" ht="90">
+    <row r="78" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>300000</v>
       </c>
@@ -4435,7 +4435,7 @@
       <c r="AF78" s="42"/>
       <c r="AG78" s="42"/>
     </row>
-    <row r="79" spans="1:33" ht="90">
+    <row r="79" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>306000</v>
       </c>
@@ -4474,7 +4474,7 @@
       <c r="AF79" s="42"/>
       <c r="AG79" s="42"/>
     </row>
-    <row r="80" spans="1:33" ht="45">
+    <row r="80" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>290000</v>
       </c>
@@ -4513,7 +4513,7 @@
       <c r="AF80" s="42"/>
       <c r="AG80" s="42"/>
     </row>
-    <row r="81" spans="1:33" ht="45">
+    <row r="81" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>335000</v>
       </c>
@@ -4552,7 +4552,7 @@
       <c r="AF81" s="42"/>
       <c r="AG81" s="42"/>
     </row>
-    <row r="82" spans="1:33" ht="45">
+    <row r="82" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>346000</v>
       </c>
@@ -4591,7 +4591,7 @@
       <c r="AF82" s="42"/>
       <c r="AG82" s="42"/>
     </row>
-    <row r="83" spans="1:33" ht="45">
+    <row r="83" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>395000</v>
       </c>
@@ -4630,7 +4630,7 @@
       <c r="AF83" s="42"/>
       <c r="AG83" s="42"/>
     </row>
-    <row r="84" spans="1:33" ht="45">
+    <row r="84" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>305000</v>
       </c>
@@ -4669,7 +4669,7 @@
       <c r="AF84" s="42"/>
       <c r="AG84" s="42"/>
     </row>
-    <row r="85" spans="1:33" ht="75">
+    <row r="85" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>1400000</v>
       </c>
@@ -4708,7 +4708,7 @@
       <c r="AF85" s="42"/>
       <c r="AG85" s="42"/>
     </row>
-    <row r="86" spans="1:33" ht="90">
+    <row r="86" spans="1:33" ht="90" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>1400000</v>
       </c>
@@ -4747,7 +4747,7 @@
       <c r="AF86" s="42"/>
       <c r="AG86" s="42"/>
     </row>
-    <row r="87" spans="1:33" ht="75">
+    <row r="87" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>280000</v>
       </c>
@@ -4786,7 +4786,7 @@
       <c r="AF87" s="42"/>
       <c r="AG87" s="42"/>
     </row>
-    <row r="88" spans="1:33" ht="45">
+    <row r="88" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>975000</v>
       </c>
@@ -4825,7 +4825,7 @@
       <c r="AF88" s="42"/>
       <c r="AG88" s="42"/>
     </row>
-    <row r="89" spans="1:33" ht="45">
+    <row r="89" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>995000</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="AF89" s="42"/>
       <c r="AG89" s="42"/>
     </row>
-    <row r="90" spans="1:33" ht="60">
+    <row r="90" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>1095000</v>
       </c>
@@ -4903,7 +4903,7 @@
       <c r="AF90" s="42"/>
       <c r="AG90" s="42"/>
     </row>
-    <row r="91" spans="1:33" ht="75">
+    <row r="91" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>406900</v>
       </c>
@@ -4942,7 +4942,7 @@
       <c r="AF91" s="42"/>
       <c r="AG91" s="42"/>
     </row>
-    <row r="92" spans="1:33" ht="45">
+    <row r="92" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>400000</v>
       </c>
@@ -4981,7 +4981,7 @@
       <c r="AF92" s="42"/>
       <c r="AG92" s="42"/>
     </row>
-    <row r="93" spans="1:33" ht="60">
+    <row r="93" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>1050000</v>
       </c>
@@ -5020,7 +5020,7 @@
       <c r="AF93" s="42"/>
       <c r="AG93" s="42"/>
     </row>
-    <row r="94" spans="1:33" ht="60">
+    <row r="94" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>1130000</v>
       </c>
@@ -5059,7 +5059,7 @@
       <c r="AF94" s="42"/>
       <c r="AG94" s="42"/>
     </row>
-    <row r="95" spans="1:33" ht="75">
+    <row r="95" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>376000</v>
       </c>
@@ -5098,7 +5098,7 @@
       <c r="AF95" s="42"/>
       <c r="AG95" s="42"/>
     </row>
-    <row r="96" spans="1:33" ht="60">
+    <row r="96" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>274000</v>
       </c>
@@ -5137,7 +5137,7 @@
       <c r="AF96" s="42"/>
       <c r="AG96" s="42"/>
     </row>
-    <row r="97" spans="1:33" ht="75">
+    <row r="97" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>285000</v>
       </c>
@@ -5176,7 +5176,7 @@
       <c r="AF97" s="42"/>
       <c r="AG97" s="42"/>
     </row>
-    <row r="98" spans="1:33" ht="75">
+    <row r="98" spans="1:33" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>271000</v>
       </c>
@@ -5215,7 +5215,7 @@
       <c r="AF98" s="42"/>
       <c r="AG98" s="42"/>
     </row>
-    <row r="99" spans="1:33" ht="60">
+    <row r="99" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>295000</v>
       </c>
@@ -5254,7 +5254,7 @@
       <c r="AF99" s="42"/>
       <c r="AG99" s="42"/>
     </row>
-    <row r="100" spans="1:33">
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="C100" s="22"/>
       <c r="D100" s="42"/>
@@ -5288,7 +5288,7 @@
       <c r="AF100" s="42"/>
       <c r="AG100" s="42"/>
     </row>
-    <row r="101" spans="1:33">
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="41"/>
       <c r="C101" s="22"/>
@@ -5323,7 +5323,7 @@
       <c r="AF101" s="42"/>
       <c r="AG101" s="42"/>
     </row>
-    <row r="102" spans="1:33">
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <f>AVERAGE(A60:A101)</f>
         <v>539467.5</v>
@@ -5360,7 +5360,7 @@
       <c r="AF102" s="42"/>
       <c r="AG102" s="42"/>
     </row>
-    <row r="103" spans="1:33">
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C103" s="22"/>
       <c r="D103" s="42"/>
       <c r="E103" s="42"/>
@@ -5393,7 +5393,7 @@
       <c r="AF103" s="42"/>
       <c r="AG103" s="42"/>
     </row>
-    <row r="104" spans="1:33">
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>90</v>
       </c>
@@ -5429,7 +5429,7 @@
       <c r="AF104" s="42"/>
       <c r="AG104" s="42"/>
     </row>
-    <row r="105" spans="1:33">
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A105" s="39">
         <f>A56/A102</f>
         <v>2.5274672698400651E-2</v>
@@ -5466,7 +5466,7 @@
       <c r="AF105" s="42"/>
       <c r="AG105" s="42"/>
     </row>
-    <row r="106" spans="1:33">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="C106" s="22"/>
       <c r="D106" s="42"/>
       <c r="E106" s="42"/>
@@ -5499,12 +5499,12 @@
       <c r="AF106" s="42"/>
       <c r="AG106" s="42"/>
     </row>
-    <row r="108" spans="1:33">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A108" s="43" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="109" spans="1:33">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109">
         <v>2019</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="110" spans="1:33">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="49">
         <f>$A$105</f>
         <v>2.5274672698400651E-2</v>
@@ -5741,11 +5741,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B78FE51-65E0-8E4B-A5A7-34FBA4D91466}">
   <dimension ref="A1:AG90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.28515625" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -5755,22 +5755,22 @@
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.95" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="45">
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>0</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F7" s="35">
         <v>100000</v>
       </c>
@@ -5796,7 +5796,7 @@
       </c>
       <c r="K7" s="22"/>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>138</v>
       </c>
@@ -5811,7 +5811,7 @@
       </c>
       <c r="K8" s="22"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>71</v>
       </c>
@@ -5826,7 +5826,7 @@
       </c>
       <c r="K9" s="22"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>73</v>
       </c>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="K10" s="22"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -5864,7 +5864,7 @@
       <c r="M11" s="12"/>
       <c r="N11" s="2"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>100000</v>
       </c>
@@ -5889,7 +5889,7 @@
       <c r="M12" s="12"/>
       <c r="N12" s="19"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="21"/>
       <c r="C13" s="22"/>
@@ -5907,7 +5907,7 @@
       <c r="M13" s="12"/>
       <c r="N13" s="20"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="21"/>
       <c r="C14" s="22"/>
@@ -5925,7 +5925,7 @@
       <c r="M14" s="12"/>
       <c r="N14" s="20"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="21"/>
       <c r="C15" s="22"/>
@@ -5943,7 +5943,7 @@
       <c r="M15" s="12"/>
       <c r="N15" s="19"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="21"/>
       <c r="C16" s="22"/>
@@ -5961,7 +5961,7 @@
       <c r="M16" s="12"/>
       <c r="N16" s="20"/>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="21"/>
       <c r="C17" s="22"/>
@@ -5979,7 +5979,7 @@
       <c r="M17" s="12"/>
       <c r="N17" s="20"/>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -5997,7 +5997,7 @@
       <c r="M18" s="12"/>
       <c r="N18" s="20"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="21"/>
       <c r="C19" s="22"/>
@@ -6015,7 +6015,7 @@
       <c r="M19" s="12"/>
       <c r="N19" s="20"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F20" s="28"/>
       <c r="G20" s="29" t="s">
         <v>79</v>
@@ -6028,7 +6028,7 @@
       <c r="M20" s="12"/>
       <c r="N20" s="20"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="37" t="s">
         <v>11</v>
       </c>
@@ -6037,7 +6037,7 @@
         <v>38246108</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>80</v>
       </c>
@@ -6046,29 +6046,29 @@
         <v>33031303</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <f>SUMPRODUCT(A12:A12,C12:C12)/C21</f>
         <v>13634.864493924453</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
         <f>A25+A6</f>
         <v>13634.864493924453</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="30">
+    <row r="30" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>141</v>
       </c>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="1:14" ht="45">
+    <row r="31" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>305000</v>
       </c>
@@ -6086,7 +6086,7 @@
       </c>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="45">
+    <row r="32" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>310000</v>
       </c>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" ht="45">
+    <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>450000</v>
       </c>
@@ -6104,7 +6104,7 @@
       </c>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" ht="45">
+    <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>500000</v>
       </c>
@@ -6113,7 +6113,7 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" ht="45">
+    <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>315000</v>
       </c>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" ht="45">
+    <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>424000</v>
       </c>
@@ -6131,7 +6131,7 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" ht="45">
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>315000</v>
       </c>
@@ -6140,7 +6140,7 @@
       </c>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" ht="45">
+    <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>315000</v>
       </c>
@@ -6149,7 +6149,7 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" ht="90">
+    <row r="39" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>228000</v>
       </c>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" ht="75">
+    <row r="40" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>237000</v>
       </c>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" ht="90">
+    <row r="41" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>337000</v>
       </c>
@@ -6176,7 +6176,7 @@
       </c>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" ht="75">
+    <row r="42" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>267000</v>
       </c>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" ht="45">
+    <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>265000</v>
       </c>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" ht="45">
+    <row r="44" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>410000</v>
       </c>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" ht="75">
+    <row r="45" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>580000</v>
       </c>
@@ -6212,7 +6212,7 @@
       </c>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" ht="60">
+    <row r="46" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>555000</v>
       </c>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" ht="60">
+    <row r="47" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>450000</v>
       </c>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" ht="45">
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>302000</v>
       </c>
@@ -6239,7 +6239,7 @@
       </c>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" ht="60">
+    <row r="49" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>280000</v>
       </c>
@@ -6248,7 +6248,7 @@
       </c>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" ht="60">
+    <row r="50" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>222000</v>
       </c>
@@ -6257,7 +6257,7 @@
       </c>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" ht="60">
+    <row r="51" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>459000</v>
       </c>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" ht="45">
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>327000</v>
       </c>
@@ -6275,7 +6275,7 @@
       </c>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" ht="45">
+    <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>645000</v>
       </c>
@@ -6284,7 +6284,7 @@
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" ht="45">
+    <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>637000</v>
       </c>
@@ -6293,7 +6293,7 @@
       </c>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" ht="60">
+    <row r="55" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>532000</v>
       </c>
@@ -6302,7 +6302,7 @@
       </c>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" ht="60">
+    <row r="56" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>537000</v>
       </c>
@@ -6311,7 +6311,7 @@
       </c>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" ht="60">
+    <row r="57" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>557000</v>
       </c>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" ht="45">
+    <row r="58" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>358000</v>
       </c>
@@ -6329,7 +6329,7 @@
       </c>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" ht="45">
+    <row r="59" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>426000</v>
       </c>
@@ -6338,7 +6338,7 @@
       </c>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" ht="45">
+    <row r="60" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>427000</v>
       </c>
@@ -6347,7 +6347,7 @@
       </c>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" ht="45">
+    <row r="61" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>845000</v>
       </c>
@@ -6356,7 +6356,7 @@
       </c>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" ht="45">
+    <row r="62" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>834000</v>
       </c>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" ht="45">
+    <row r="63" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>427000</v>
       </c>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" ht="45">
+    <row r="64" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>845000</v>
       </c>
@@ -6383,7 +6383,7 @@
       </c>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:33" ht="60">
+    <row r="65" spans="1:33" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>200000</v>
       </c>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:33" ht="45">
+    <row r="66" spans="1:33" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>300000</v>
       </c>
@@ -6401,48 +6401,48 @@
       </c>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="14"/>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="14"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="41"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <f>AVERAGE(A31:A71)</f>
         <v>428416.66666666669</v>
       </c>
       <c r="C72" s="2"/>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A75" s="50">
         <f>A28/A72</f>
         <v>3.1826176605153363E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A77" s="48" t="s">
         <v>178</v>
       </c>
@@ -6479,7 +6479,7 @@
       <c r="AF77" s="20"/>
       <c r="AG77" s="20"/>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
       <c r="B78" s="20">
         <v>2019</v>
@@ -6578,7 +6578,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A79" s="20"/>
       <c r="B79" s="42">
         <f>C79</f>
@@ -6709,18 +6709,18 @@
         <v>3.1826176605153363E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:33">
+    <row r="81" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="82" spans="1:33">
+    <row r="82" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A82" s="9">
         <f>SUMPRODUCT(33%,C12:C12)/C21</f>
         <v>4.4995052829950699E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:33">
+    <row r="84" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A84" s="48" t="s">
         <v>179</v>
       </c>
@@ -6757,7 +6757,7 @@
       <c r="AF84" s="20"/>
       <c r="AG84" s="20"/>
     </row>
-    <row r="85" spans="1:33">
+    <row r="85" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="20">
         <v>2019</v>
@@ -6856,7 +6856,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="86" spans="1:33">
+    <row r="86" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A86" s="20"/>
       <c r="B86" s="42">
         <f>C86</f>
@@ -6987,7 +6987,7 @@
         <v>4.4995052829950699E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:33">
+    <row r="90" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B90" s="9"/>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -7012,16 +7012,16 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="48">
+    <row r="1" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>180</v>
       </c>
@@ -7131,7 +7131,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>0.20572837200566158</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>2.5274672698400651E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -7874,12 +7874,12 @@
       <selection activeCell="AM4" sqref="AM4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="32.1">
+    <row r="1" spans="1:36" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>180</v>
       </c>
@@ -7989,7 +7989,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>181</v>
       </c>
@@ -8131,7 +8131,7 @@
         <v>4.4995052829950699E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>182</v>
       </c>
@@ -8273,7 +8273,7 @@
         <v>3.1826176605153363E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>183</v>
       </c>
@@ -8383,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>184</v>
       </c>
@@ -8493,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>185</v>
       </c>
@@ -8603,7 +8603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>186</v>
       </c>
@@ -8726,9 +8726,9 @@
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" ht="63.95">
+    <row r="1" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>187</v>
       </c>
@@ -8766,12 +8766,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
@@ -8809,7 +8809,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -8847,12 +8847,12 @@
         <v>43942</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -8890,12 +8890,12 @@
         <v>44379</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -8933,12 +8933,12 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -8976,12 +8976,12 @@
         <v>44186</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>216</v>
       </c>
@@ -9019,12 +9019,12 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2020</v>
       </c>
@@ -9062,12 +9062,12 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -9105,12 +9105,12 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>216</v>
       </c>
@@ -9148,12 +9148,12 @@
         <v>43614</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>218</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -9199,7 +9199,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2020</v>
       </c>
@@ -9237,12 +9237,12 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2021</v>
       </c>
@@ -9280,12 +9280,12 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2022</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2022</v>
       </c>
@@ -9361,12 +9361,12 @@
         <v>44273</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>218</v>
       </c>
@@ -9404,7 +9404,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2019</v>
       </c>
@@ -9412,7 +9412,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>226</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>218</v>
       </c>
@@ -9458,7 +9458,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2019</v>
       </c>
@@ -9466,22 +9466,22 @@
         <v>231</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2020</v>
       </c>
@@ -9519,17 +9519,17 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2021</v>
       </c>
@@ -9567,22 +9567,22 @@
         <v>44144</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -9620,17 +9620,17 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2021</v>
       </c>
@@ -9668,17 +9668,17 @@
         <v>44235</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2018</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>218</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2019</v>
       </c>
@@ -9762,12 +9762,12 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2020</v>
       </c>
@@ -9805,12 +9805,12 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>245</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>43802</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2019</v>
       </c>
@@ -9886,12 +9886,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2021</v>
       </c>
@@ -9929,12 +9929,12 @@
         <v>44174</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2021</v>
       </c>
@@ -9972,12 +9972,12 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>226</v>
       </c>
@@ -10015,7 +10015,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2018</v>
       </c>
@@ -10023,12 +10023,12 @@
         <v>254</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2019</v>
       </c>
@@ -10066,12 +10066,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2020</v>
       </c>
@@ -10109,12 +10109,12 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2018</v>
       </c>
@@ -10152,12 +10152,12 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2019</v>
       </c>
@@ -10195,12 +10195,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2022</v>
       </c>
@@ -10238,17 +10238,17 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2020</v>
       </c>
@@ -10286,12 +10286,12 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2021</v>
       </c>
@@ -10329,17 +10329,17 @@
         <v>44223</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2022</v>
       </c>
@@ -10377,17 +10377,17 @@
         <v>44390</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2021</v>
       </c>
@@ -10425,12 +10425,12 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2019</v>
       </c>
@@ -10468,7 +10468,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2020</v>
       </c>
@@ -10506,22 +10506,22 @@
         <v>43753</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2022</v>
       </c>
@@ -10559,12 +10559,12 @@
         <v>44389</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2017</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>43633</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>218</v>
       </c>
@@ -10640,12 +10640,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2019</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2022</v>
       </c>
@@ -10683,12 +10683,12 @@
         <v>44397</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2019</v>
       </c>
@@ -10726,12 +10726,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2020</v>
       </c>
@@ -10769,12 +10769,12 @@
         <v>43864</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2021</v>
       </c>
@@ -10812,17 +10812,17 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2022</v>
       </c>
@@ -10860,17 +10860,17 @@
         <v>44425</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2019</v>
       </c>
@@ -10908,12 +10908,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2020</v>
       </c>
@@ -10951,12 +10951,12 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2021</v>
       </c>
@@ -10994,17 +10994,17 @@
         <v>44267</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2022</v>
       </c>
@@ -11042,17 +11042,17 @@
         <v>44424</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>226</v>
       </c>
@@ -11090,7 +11090,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>218</v>
       </c>
@@ -11098,17 +11098,17 @@
         <v>275</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2020</v>
       </c>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2022</v>
       </c>
@@ -11146,17 +11146,17 @@
         <v>44466</v>
       </c>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2022</v>
       </c>
@@ -11194,12 +11194,12 @@
         <v>44403</v>
       </c>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2021</v>
       </c>
@@ -11237,7 +11237,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>226</v>
       </c>
@@ -11275,7 +11275,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>218</v>
       </c>
@@ -11283,7 +11283,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>278</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2020</v>
       </c>
@@ -11299,12 +11299,12 @@
         <v>285</v>
       </c>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2022</v>
       </c>
@@ -11342,12 +11342,12 @@
         <v>44455</v>
       </c>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2022</v>
       </c>
@@ -11385,7 +11385,7 @@
         <v>44259</v>
       </c>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>294</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2021</v>
       </c>
@@ -11431,12 +11431,12 @@
         <v>224</v>
       </c>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>218</v>
       </c>
@@ -11474,7 +11474,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>278</v>
       </c>
@@ -11482,12 +11482,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2020</v>
       </c>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2021</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>44092</v>
       </c>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2022</v>
       </c>
@@ -11563,7 +11563,7 @@
         <v>44271</v>
       </c>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2017</v>
       </c>
@@ -11601,7 +11601,7 @@
         <v>43703</v>
       </c>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>218</v>
       </c>
@@ -11639,7 +11639,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2019</v>
       </c>
@@ -11647,17 +11647,17 @@
         <v>306</v>
       </c>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2020</v>
       </c>
@@ -11695,22 +11695,22 @@
         <v>43703</v>
       </c>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D151" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2021</v>
       </c>
@@ -11748,22 +11748,22 @@
         <v>44270</v>
       </c>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D156" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D157" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2022</v>
       </c>
@@ -11801,22 +11801,22 @@
         <v>44383</v>
       </c>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D159" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D160" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D161" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>216</v>
       </c>
@@ -11854,32 +11854,32 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D163" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D164" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D165" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D166" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D167" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2020</v>
       </c>
@@ -11917,27 +11917,27 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D169" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D170" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D171" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D172" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2021</v>
       </c>
@@ -11975,22 +11975,22 @@
         <v>44155</v>
       </c>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D174" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D175" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D176" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2022</v>
       </c>
@@ -12028,22 +12028,22 @@
         <v>44431</v>
       </c>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D178" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D179" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D180" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>218</v>
       </c>
@@ -12081,12 +12081,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2019</v>
       </c>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>218</v>
       </c>
@@ -12124,12 +12124,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2019</v>
       </c>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>226</v>
       </c>
@@ -12167,12 +12167,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2018</v>
       </c>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>226</v>
       </c>
@@ -12210,12 +12210,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2018</v>
       </c>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2021</v>
       </c>
@@ -12253,7 +12253,7 @@
         <v>44145</v>
       </c>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2020</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2022</v>
       </c>
@@ -12329,12 +12329,12 @@
         <v>44496</v>
       </c>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D192" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2021</v>
       </c>
@@ -12372,12 +12372,12 @@
         <v>44117</v>
       </c>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D194" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2019</v>
       </c>
@@ -12415,12 +12415,12 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D196" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2020</v>
       </c>
@@ -12458,12 +12458,12 @@
         <v>43773</v>
       </c>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D198" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2022</v>
       </c>
@@ -12501,12 +12501,12 @@
         <v>44369</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D200" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2021</v>
       </c>
@@ -12544,12 +12544,12 @@
         <v>44032</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D202" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>218</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2019</v>
       </c>
@@ -12595,12 +12595,12 @@
         <v>330</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D205" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2020</v>
       </c>
@@ -12638,17 +12638,17 @@
         <v>43622</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D207" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D208" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2021</v>
       </c>
@@ -12686,12 +12686,12 @@
         <v>44055</v>
       </c>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D210" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>226</v>
       </c>
@@ -12729,12 +12729,12 @@
         <v>43724</v>
       </c>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2018</v>
       </c>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2019</v>
       </c>
@@ -12772,7 +12772,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2020</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>43755</v>
       </c>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2021</v>
       </c>
@@ -12848,7 +12848,7 @@
         <v>44285</v>
       </c>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D216" t="s">
         <v>338</v>
       </c>
@@ -12868,25 +12868,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6681120aa8fa62dd7a0beb503524cb55">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b98e8ac0331400a99b3dbea3ee620024" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -12910,6 +12893,8 @@
                 <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -12996,6 +12981,18 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceEventHashCode" ma:index="24" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="26" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a296b89e-8abc-49db-b68e-edd9bb7809e5" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -13130,14 +13127,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D247833D-A1B7-41AC-BACC-D4689E30195E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D247833D-A1B7-41AC-BACC-D4689E30195E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04F5E967-8A5F-4435-99AE-097DF8883537}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED563585-6E94-4704-BF14-8EFFCA688AEF}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F71507B1-5DDF-4A0F-BA56-7879099D2B5F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04F5E967-8A5F-4435-99AE-097DF8883537}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/BESP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="847" documentId="8_{DDCD7F66-7D42-F041-AC76-008463E934EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BBF8398-8E39-4668-A975-A19D06BE461C}"/>
+  <xr:revisionPtr revIDLastSave="851" documentId="8_{DDCD7F66-7D42-F041-AC76-008463E934EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E2B33D3-8BCA-4110-A16D-5320ED52B032}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3495" yWindow="3075" windowWidth="27030" windowHeight="14130" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -2290,8 +2290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG110"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="R40" sqref="R40"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7012,8 +7012,8 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12859,17 +12859,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -12895,6 +12906,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -12995,6 +13007,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -13128,43 +13145,40 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04F5E967-8A5F-4435-99AE-097DF8883537}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{739A6B27-4989-47C9-A84D-422038CBEDC6}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D247833D-A1B7-41AC-BACC-D4689E30195E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED563585-6E94-4704-BF14-8EFFCA688AEF}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04F5E967-8A5F-4435-99AE-097DF8883537}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>